--- a/Archive/Estimate-€-Azure-Hub-Notifications.xlsx
+++ b/Archive/Estimate-€-Azure-Hub-Notifications.xlsx
@@ -5,22 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.gobbo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.gobbo\source\repos\TestNotification\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAEC759-9210-4A61-AACF-082F9E164717}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C3ECD2-AB89-4B18-B546-9DBC6128891F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="La tua stima" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Microsoft Azure Estimate</t>
   </si>
@@ -80,6 +88,9 @@
   </si>
   <si>
     <t>https://azure.microsoft.com/it-it/pricing/calculator/?service=notification-hubs</t>
+  </si>
+  <si>
+    <t>Annual cost :</t>
   </si>
 </sst>
 </file>
@@ -149,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -168,12 +179,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -233,11 +259,14 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -557,7 +586,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -565,7 +594,7 @@
     <col min="1" max="3" width="24" style="2" customWidth="1"/>
     <col min="4" max="4" width="50" style="2" customWidth="1"/>
     <col min="5" max="6" width="30" style="4" customWidth="1"/>
-    <col min="7" max="7" width="30" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="20.25">
@@ -985,11 +1014,13 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="16.5">
-      <c r="A14" s="21" t="s">
-        <v>19</v>
+      <c r="A14" s="8" t="s">
+        <v>20</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="B14" s="21">
+        <f>(E7*12)</f>
+        <v>101.196</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1043,9 +1074,11 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="16.5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1099,9 +1132,6 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="16.5">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1127,9 +1157,6 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="16.5">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -28628,11 +28655,12 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" xr:uid="{D0366C63-E0B9-4AA2-8EE7-8ED9964E3208}"/>
+    <hyperlink ref="A16" r:id="rId1" xr:uid="{D0366C63-E0B9-4AA2-8EE7-8ED9964E3208}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>